--- a/Charakterystyka przemieszczeniowa analitycznie - policzone + wykres.xlsx
+++ b/Charakterystyka przemieszczeniowa analitycznie - policzone + wykres.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="16080" windowHeight="13110" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="16080" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ch.przemieszczeniowa" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>l1</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>delta x</t>
+  </si>
+  <si>
+    <t>f_F(x) = 1/2f_v(x)</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -698,11 +700,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69380736"/>
-        <c:axId val="69394816"/>
+        <c:axId val="120165504"/>
+        <c:axId val="120167808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69380736"/>
+        <c:axId val="120165504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,11 +730,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69394816"/>
+        <c:crossAx val="120167808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +742,7 @@
         <c:tickMarkSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69394816"/>
+        <c:axId val="120167808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -769,12 +770,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69380736"/>
+        <c:crossAx val="120165504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -784,7 +784,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1312,11 +1312,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75638272"/>
-        <c:axId val="75694464"/>
+        <c:axId val="121470336"/>
+        <c:axId val="121484800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75638272"/>
+        <c:axId val="121470336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1346,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75694464"/>
+        <c:crossAx val="121484800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1354,7 +1354,7 @@
         <c:tickLblSkip val="5"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75694464"/>
+        <c:axId val="121484800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1385,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75638272"/>
+        <c:crossAx val="121470336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1394,7 +1394,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1439,16 +1439,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3426,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5400,12 +5400,2281 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>ATAN(($H$4-$H$3)/($H$5-A2-$H$2))+3.14</f>
+        <v>2.3546018366025518</v>
+      </c>
+      <c r="C2">
+        <f>($H$4-$H$3)*($H$6*COS(B2-1.832)+$H$7*COS(B2-2.356))</f>
+        <v>522.62629031301981</v>
+      </c>
+      <c r="D2">
+        <f>($H$5-A2-$H$2)*($H$5-A2-$H$2)+($H$4-$H$3)*($H$4-$H$3)</f>
+        <v>392</v>
+      </c>
+      <c r="E2">
+        <f>C2/D2 *10</f>
+        <v>13.332303324311729</v>
+      </c>
+      <c r="F2">
+        <f>A2-$A$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <f>1/(2*E2/10)</f>
+        <v>0.37502897124178064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>20.2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">ATAN(($H$4-$H$3)/($H$5-A3-$H$2))+3.14</f>
+        <v>2.3616939162768715</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">($H$4-$H$3)*($H$6*COS(B3-1.832)+$H$7*COS(B3-2.356))</f>
+        <v>521.62475549102521</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="2">($H$5-A3-$H$2)*($H$5-A3-$H$2)+($H$4-$H$3)*($H$4-$H$3)</f>
+        <v>397.64</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="3">C3/D3 *10</f>
+        <v>13.118015176818862</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="4">A3-$A$2</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="5">1/(2*E3/10)</f>
+        <v>0.38115522299712012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.3686854124254122</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>520.61174386137805</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>403.35999999999996</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>12.906875839482797</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>0.38739041594440254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>20.6</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.3755777806365748</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>519.58818556856193</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>409.16000000000008</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>12.698899833037487</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0.39373489560032504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>20.8</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.3823724731959728</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>518.5549718795728</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>415.04</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>12.494096276975057</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>0.40018900840506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.3890709376020598</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>517.51295630097115</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>12.292469270806915</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0.40675310141912474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>21.2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.395674615193006</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>516.46295569953986</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>427.03999999999996</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>12.094018258232014</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>0.41342752203938993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>21.4</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.4021849398795352</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>515.405751422462</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>433.15999999999997</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>11.898738374329625</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0.42021261773323931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>21.6</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.40860333697852</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>514.34209041335214</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>439.36</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>11.706620775977608</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>0.42710873578993636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>21.8</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2.4149312221422452</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>513.27268632087009</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>445.64</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>11.517652955768561</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>0.43411622308829634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.4211700003783756</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>512.19822059700959</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>11.33181903975685</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>0.4412354258798053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>22.2</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.4273210651558057</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>511.11934358249755</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>458.44</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>11.149100069420154</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>0.44846668958636776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>22.4</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.4333857975916957</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>510.03667557705739</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>464.96</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>10.969474268260871</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>0.45581035861190028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>22.6</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.4393655657151694</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>508.95080789257889</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>471.56000000000006</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>10.792917293506211</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>2.6000000000000014</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>0.46326677616702922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>22.8</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.4452617238032968</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>507.86230388750818</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>478.24</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>10.619402473392192</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>2.8000000000000007</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>0.47083628410618406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.4510756117851389</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>506.77169998102204</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>485</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>10.448901030536536</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>0.47851922277641257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>23.2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.4568085547098053</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>505.67950664577131</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>491.84</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>10.281382291919554</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>0.48631593087727604</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>23.4</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.4624618622746355</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>504.58620937819353</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>498.75999999999993</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>10.116813886001154</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>3.3999999999999986</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0.49422674533121574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>23.6</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.468036828409768</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>503.49226964557681</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>505.76000000000005</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>9.9551619275066585</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>0.50225200116381086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>23.8</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2.4735347309155409</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>502.39812580923456</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>512.84</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>9.7963911904148375</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>0.51039203139337586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2.4789568311493131</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>501.30419402330301</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>9.6404652696789039</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0.51864716692937529</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>24.2</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.484304373758464</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>500.21086910881377</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>527.24</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>9.4873467322057081</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>0.52701773647915917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>24.4</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2.4895785864564752</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>499.1185254028228</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>534.55999999999995</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>9.3369972576104239</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>0.53550406646254356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24.6</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.4947806798391619</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>498.02751758248672</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>541.96</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>9.1893777692539427</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0.54410648093379388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>24.8</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2.4999118472382538</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>496.9381814640808</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>549.44000000000005</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>9.0444485560585459</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0.55282530151058051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.5049732646096863</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>495.85083477704256</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>557</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>8.9021693855842479</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>0.56166084730950683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>25.2</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2.509966090454085</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>494.76577791320312</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>564.64</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>8.7624996088340019</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>0.57061343488782579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>25.4</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2.5148914657670769</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>493.68329465143853</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>572.3599999999999</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>8.6253982572408727</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>0.57968337819098226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>25.6</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2.5197505140171788</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>492.60365285803618</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>580.16000000000008</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>8.4908241322744775</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0.58887098850563835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>25.8</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2.5245443411491477</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>491.5271051631214</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>588.04</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>8.3587358880879101</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>0.59817657441785343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2.5292740356107917</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>490.45388961353751</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>596</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>8.2290921076096897</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0.60760044177611638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>26.2</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2.5339406684013577</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>489.38423030261072</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>604.04</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>8.1018513724688894</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.61714289365892705</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>26.4</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2.5385452931397268</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>488.31833797726375</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>612.16</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>7.9769723271246695</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>6.3999999999999986</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.62680423034666199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>26.6</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2.5430889461507449</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>487.25641062296893</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>620.36000000000013</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>7.8544137375551104</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>6.6000000000000014</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.63658474929745412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>26.8</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2.5475726465681214</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>486.19863402705789</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>628.6400000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>7.7341345448437551</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>0.64648474512683951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2.5519973964524327</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>485.1451823209149</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>637</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>7.6160939139861048</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.6565045095909412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>27.2</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2.5563641809228388</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>484.09621850160363</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>645.44000000000005</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>7.500251278222664</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0.66664433157296177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>27.4</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2.5606739683012343</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>483.05189493348081</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>653.95999999999992</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>7.3865663791895662</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0.67690449707277744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>27.6</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2.5649277102676096</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>482.01235383036078</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>662.56000000000006</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>7.274999303162895</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.68728528919943521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>27.8</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2.5691263420255059</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>480.97772771879568</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>671.24</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>7.1655105136582398</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>0.6977869881663642</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>2.5732707824764938</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>479.94813988304179</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>680</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>7.0580608806329668</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>0.7084098712891238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>28.2</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>2.5773619344026968</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>478.92370479227714</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>688.83999999999992</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>6.9526117065251327</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>0.71915421298552074</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>28.4</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2.5814006846564377</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>477.90452851063549</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>697.76</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>6.8491247493498548</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>0.73002028477793734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>28.6</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2.5853879043561481</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>476.89070909061672</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>706.76</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>6.7475622430615303</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0.74100835529771725</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>28.8</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2.5893244490877487</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>475.88233695042595</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>715.84</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>6.6478869153781002</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>0.75211869029147338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>29</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>2.5932111591107527</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>474.879495235788</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>725</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>6.5500620032522487</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>0.76335155262917986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>29.2</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>2.5970488595684071</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>473.88226016677567</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>734.24</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>6.4540512661633205</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>0.7747072023139201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>29.4</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>2.6008383607012338</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>472.89070137017558</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>743.56</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>6.3598189973932922</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>0.7861858964931796</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>29.6</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>2.6045804580633742</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>471.9048821979145</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>752.96</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>6.2673300334402162</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>0.79778788947156132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>29.8</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>2.6082759327411944</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>470.92486003204681</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>762.44</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>6.1765497617130105</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>0.80951343272482512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>2.6119255515736404</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>469.9506865768011</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>772</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>6.0874441266425015</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>0.8213627749151472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>30.2</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>2.6155300673738777</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>468.98240813816722</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>781.64</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>5.9999796343350811</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>0.83333616190750637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>30.4</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>2.6190902191517842</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>468.0200658914921</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>791.3599999999999</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>5.9141233558872344</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>0.84543383678710948</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>30.6</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>2.6226067323368998</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>467.0636961375443</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>801.16000000000008</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>5.8298429294715692</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>0.85765603987776939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>30.8</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>2.6260803190014661</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>466.11333054748951</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>811.04000000000008</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>5.7471065612977101</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>10.8</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>0.87000300876115799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>31</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>2.6295116780832242</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>465.16899639720862</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>821</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>5.6658830255445629</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>0.88247497829686261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>31.2</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>2.6329014956076633</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>464.23071679137729</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>831.04</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>5.5861416633540788</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>11.2</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>0.89507218064317007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>31.4</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>2.6362504449094382</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>463.29851087771232</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>841.16</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>5.5078523809704736</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>11.399999999999999</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>0.9077948452785165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>31.6</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>2.639559186852706</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>462.37239405177485</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>851.36000000000013</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>5.4309856471031619</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>0.92064319902354275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>31.8</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>2.6428283700501396</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>461.4523781527148</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>861.64</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>5.3555124895863102</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>11.8</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>0.93361746606368723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>32</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>2.6460586310804191</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>460.53847165031732</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>872</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>5.2814044914027214</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>0.94671786797227842</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>2.6492505947039984</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>459.63067982371069</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>882.44000000000017</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>5.208633786135155</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>12.200000000000003</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="5"/>
+        <v>0.95994462373405542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>32.4</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>2.6524048740769866</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>458.7290049320743</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>892.95999999999992</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>5.1371730529035382</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>12.399999999999999</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>0.9732979497690839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>32.6</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>2.6555220709629768</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>457.83344637767811</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>903.56000000000006</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>5.0669955108424247</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="5"/>
+        <v>0.98677805995701662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>2.6586027759426965</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>456.9440008615714</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>914.2399999999999</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>4.9980749131690958</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="5"/>
+        <v>1.0003851656616494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B77" si="6">ATAN(($H$4-$H$3)/($H$5-A67-$H$2))+3.14</f>
+        <v>2.6616475686213428</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C77" si="7">($H$4-$H$3)*($H$6*COS(B67-1.832)+$H$7*COS(B67-2.356))</f>
+        <v>456.06066253222718</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D77" si="8">($H$5-A67-$H$2)*($H$5-A67-$H$2)+($H$4-$H$3)*($H$4-$H$3)</f>
+        <v>925</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E77" si="9">C67/D67 *10</f>
+        <v>4.9303855408889428</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F77" si="10">A67-$A$2</f>
+        <v>13</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J77" si="11">1/(2*E67/10)</f>
+        <v>1.014119475755745</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="6"/>
+        <v>2.6646570178335049</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="7"/>
+        <v>455.18342312743732</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="8"/>
+        <v>935.84000000000015</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="9"/>
+        <v>4.8639021961813693</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="10"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="11"/>
+        <v>1.0279811966460757</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>33.4</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="6"/>
+        <v>2.6676316818455712</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="7"/>
+        <v>454.31227210974146</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="8"/>
+        <v>946.75999999999988</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="9"/>
+        <v>4.7986001955061637</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="10"/>
+        <v>13.399999999999999</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="11"/>
+        <v>1.0419705322986577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>33.6</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="6"/>
+        <v>2.6705721085555325</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="7"/>
+        <v>453.4471967956664</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="8"/>
+        <v>957.7600000000001</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="9"/>
+        <v>4.7344553624672816</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="10"/>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="11"/>
+        <v>1.0560876842641378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="6"/>
+        <v>2.6734788356901178</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="7"/>
+        <v>452.58818247903423</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="8"/>
+        <v>968.8399999999998</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="9"/>
+        <v>4.6714440204681305</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="10"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>1.0703328517033035</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>34</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="6"/>
+        <v>2.676352390999194</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="7"/>
+        <v>451.73521254859452</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="8"/>
+        <v>980</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="9"/>
+        <v>4.6095429851897398</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="11"/>
+        <v>1.0847062314126978</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>34.199999999999903</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="6"/>
+        <v>2.6791932924473691</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="7"/>
+        <v>450.88826860022539</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="8"/>
+        <v>991.23999999999455</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="9"/>
+        <v>4.5487295569209056</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="10"/>
+        <v>14.199999999999903</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="11"/>
+        <v>1.0992080178502774</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>34.399999999999899</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="6"/>
+        <v>2.6820020484027771</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="7"/>
+        <v>450.04733054392949</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="8"/>
+        <v>1002.5599999999943</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="9"/>
+        <v>4.4889815127666379</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="10"/>
+        <v>14.399999999999899</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="11"/>
+        <v>1.1138384031611688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>34.599999999999902</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="6"/>
+        <v>2.6847791578229701</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="7"/>
+        <v>449.21237670586129</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="8"/>
+        <v>1013.9599999999944</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="9"/>
+        <v>4.4302770987599489</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="10"/>
+        <v>14.599999999999902</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>1.1285975772033578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>34.799999999999898</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>2.6875251104379321</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>448.38338392558586</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="8"/>
+        <v>1025.4399999999941</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="9"/>
+        <v>4.3725950218987792</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="10"/>
+        <v>14.799999999999898</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>1.1434857275734567</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>34.999999999999901</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>2.6902403869301597</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="7"/>
+        <v>447.56032764878864</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="8"/>
+        <v>1036.9999999999941</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="9"/>
+        <v>4.3159144421291344</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="10"/>
+        <v>14.999999999999901</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>1.1585030396324054</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>